--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -526,312 +526,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>S/R</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$11:$I$11</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Atomic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BEM CSS</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BEM Flexboxgrid</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>OOCSS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Organic</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Raw</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SMACSS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$15:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1393757872"/>
-        <c:axId val="1374315024"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1393757872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1374315024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1374315024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1393757872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>Sheet1!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1034,6 +728,345 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1369734144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total (Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of lines</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Atomic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BEM CSS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BEM Flexboxgrid</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CSS Modules</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OOCSS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Raw</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>324.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>283.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>297.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>342.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1342214064"/>
+        <c:axId val="1342212912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1342214064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1342212912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1342212912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1342214064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1449,399 +1482,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total (Number</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of lines</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$1:$I$3</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>220</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>179</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>151</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>173</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>192</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>238</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>210</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>180</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>104</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>104</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>109</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>124</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>98</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>104</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>78</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>108</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Atomic</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>BEM CSS</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>BEM Flexboxgrid</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>CSS Modules</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>OOCSS</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Organic</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Raw</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>SMACSS</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>324.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>283.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>260.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>297.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>290.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>342.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>288.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>288.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1372952768"/>
-        <c:axId val="1372914080"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1372952768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1372914080"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1372914080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1372952768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>HTML (File sizes)</a:t>
             </a:r>
           </a:p>
@@ -2138,7 +1778,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2469,7 +2109,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2800,7 +2440,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3106,7 +2746,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3412,7 +3052,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3670,6 +3310,312 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1348242944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S/R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Atomic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BEM CSS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BEM Flexboxgrid</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CSS Modules</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OOCSS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Raw</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1393757872"/>
+        <c:axId val="1374315024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1393757872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1374315024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1374315024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1393757872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9755,36 +9701,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -9807,7 +9723,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9837,7 +9753,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9867,7 +9783,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9897,7 +9813,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9927,7 +9843,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9957,7 +9873,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9987,7 +9903,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10009,6 +9925,36 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10291,8 +10237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleshaoleg/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleshaoleg/Documents/Projects/holy-grail-markup/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -315,11 +315,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1367770176"/>
-        <c:axId val="1367739776"/>
+        <c:axId val="-1872659248"/>
+        <c:axId val="-1872657888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1367770176"/>
+        <c:axId val="-1872659248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -362,7 +362,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1367739776"/>
+        <c:crossAx val="-1872657888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -370,7 +370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1367739776"/>
+        <c:axId val="-1872657888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -420,7 +420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1367770176"/>
+        <c:crossAx val="-1872659248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -470,313 +470,6 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>D/R</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$11:$I$11</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Atomic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BEM CSS</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BEM Flexboxgrid</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>OOCSS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Organic</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Raw</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SMACSS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$16:$I$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.54</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1369734144"/>
-        <c:axId val="1369646064"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1369734144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1369646064"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1369646064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1369734144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -961,11 +654,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1342214064"/>
-        <c:axId val="1342212912"/>
+        <c:axId val="-1841790144"/>
+        <c:axId val="-1841564224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1342214064"/>
+        <c:axId val="-1841790144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342212912"/>
+        <c:crossAx val="-1841564224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1016,7 +709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1342212912"/>
+        <c:axId val="-1841564224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,7 +759,313 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342214064"/>
+        <c:crossAx val="-1841790144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Declarations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Atomic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BEM CSS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BEM Flexboxgrid</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CSS Modules</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OOCSS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Raw</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1845168464"/>
+        <c:axId val="-1845166144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1845168464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1845166144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1845166144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1845168464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1292,11 +1291,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1345138064"/>
-        <c:axId val="1371702128"/>
+        <c:axId val="-1852186784"/>
+        <c:axId val="-1852184464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1345138064"/>
+        <c:axId val="-1852186784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1338,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1371702128"/>
+        <c:crossAx val="-1852184464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1347,7 +1346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1371702128"/>
+        <c:axId val="-1852184464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1345138064"/>
+        <c:crossAx val="-1852186784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1624,11 +1623,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1348151904"/>
-        <c:axId val="1371509936"/>
+        <c:axId val="-1841499648"/>
+        <c:axId val="-1841497328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1348151904"/>
+        <c:axId val="-1841499648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,7 +1670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1371509936"/>
+        <c:crossAx val="-1841497328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1679,7 +1678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1371509936"/>
+        <c:axId val="-1841497328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,7 +1728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1348151904"/>
+        <c:crossAx val="-1841499648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1955,11 +1954,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1371966864"/>
-        <c:axId val="1371968640"/>
+        <c:axId val="-1852175920"/>
+        <c:axId val="-1852173600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1371966864"/>
+        <c:axId val="-1852175920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,7 +2001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1371968640"/>
+        <c:crossAx val="-1852173600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2010,7 +2009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1371968640"/>
+        <c:axId val="-1852173600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,7 +2059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1371966864"/>
+        <c:crossAx val="-1852175920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2286,11 +2285,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1392941568"/>
-        <c:axId val="1392738416"/>
+        <c:axId val="-1845411200"/>
+        <c:axId val="-1845386016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1392941568"/>
+        <c:axId val="-1845411200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,7 +2332,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1392738416"/>
+        <c:crossAx val="-1845386016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2341,7 +2340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1392738416"/>
+        <c:axId val="-1845386016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +2390,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1392941568"/>
+        <c:crossAx val="-1845411200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2592,11 +2591,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1374993232"/>
-        <c:axId val="1371811056"/>
+        <c:axId val="-1844602160"/>
+        <c:axId val="-1844599840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1374993232"/>
+        <c:axId val="-1844602160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2639,7 +2638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1371811056"/>
+        <c:crossAx val="-1844599840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2647,7 +2646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1371811056"/>
+        <c:axId val="-1844599840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,7 +2696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1374993232"/>
+        <c:crossAx val="-1844602160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2803,11 +2802,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$13</c:f>
+              <c:f>Sheet1!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Declarations</c:v>
+                  <c:v>Rules</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2856,33 +2855,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$I$13</c:f>
+              <c:f>Sheet1!$B$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>78.0</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.0</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.0</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.0</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86.0</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2898,11 +2897,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1368082624"/>
-        <c:axId val="1393633840"/>
+        <c:axId val="-1841478096"/>
+        <c:axId val="-1842121920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1368082624"/>
+        <c:axId val="-1841478096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2945,7 +2944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1393633840"/>
+        <c:crossAx val="-1842121920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2953,7 +2952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1393633840"/>
+        <c:axId val="-1842121920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3003,7 +3002,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1368082624"/>
+        <c:crossAx val="-1841478096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3109,11 +3108,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$14</c:f>
+              <c:f>Sheet1!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rules</c:v>
+                  <c:v>S/R</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3162,33 +3161,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$I$14</c:f>
+              <c:f>Sheet1!$B$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>71.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.0</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.0</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.0</c:v>
+                  <c:v>1.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3204,11 +3203,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1348242944"/>
-        <c:axId val="1348087664"/>
+        <c:axId val="-1842177264"/>
+        <c:axId val="-1842174944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1348242944"/>
+        <c:axId val="-1842177264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3251,7 +3250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1348087664"/>
+        <c:crossAx val="-1842174944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3259,7 +3258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1348087664"/>
+        <c:axId val="-1842174944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3309,7 +3308,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1348242944"/>
+        <c:crossAx val="-1842177264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3415,11 +3414,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$15</c:f>
+              <c:f>Sheet1!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S/R</c:v>
+                  <c:v>D/R</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3468,33 +3467,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$I$15</c:f>
+              <c:f>Sheet1!$B$16:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
+                  <c:v>2.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3510,11 +3509,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1393757872"/>
-        <c:axId val="1374315024"/>
+        <c:axId val="-1957830528"/>
+        <c:axId val="-1957828208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1393757872"/>
+        <c:axId val="-1957830528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3557,7 +3556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1374315024"/>
+        <c:crossAx val="-1957828208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3565,7 +3564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1374315024"/>
+        <c:axId val="-1957828208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3585,6 +3584,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3615,7 +3615,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1393757872"/>
+        <c:crossAx val="-1957830528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9821,36 +9821,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
@@ -9873,7 +9843,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9903,7 +9873,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9933,7 +9903,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9955,6 +9925,36 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10237,8 +10237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10341,35 +10341,35 @@
         <v>18</v>
       </c>
       <c r="B4" s="1">
-        <f>B2+B3</f>
+        <f t="shared" ref="B4:I4" si="0">B2+B3</f>
         <v>324</v>
       </c>
       <c r="C4" s="1">
-        <f>C2+C3</f>
+        <f t="shared" si="0"/>
         <v>283</v>
       </c>
       <c r="D4" s="1">
-        <f>D2+D3</f>
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
       <c r="E4" s="1">
-        <f>E2+E3</f>
+        <f t="shared" si="0"/>
         <v>297</v>
       </c>
       <c r="F4" s="1">
-        <f>F2+F3</f>
+        <f t="shared" si="0"/>
         <v>290</v>
       </c>
       <c r="G4" s="1">
-        <f>G2+G3</f>
+        <f t="shared" si="0"/>
         <v>342</v>
       </c>
       <c r="H4" s="1">
-        <f>H2+H3</f>
+        <f t="shared" si="0"/>
         <v>288</v>
       </c>
       <c r="I4" s="1">
-        <f>I2+I3</f>
+        <f t="shared" si="0"/>
         <v>288</v>
       </c>
     </row>
@@ -10469,27 +10469,27 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:H9" si="0">C7+C8</f>
+        <f t="shared" ref="C9:H9" si="1">C7+C8</f>
         <v>7.31</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.36</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5299999999999994</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0299999999999994</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.41</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.48</v>
       </c>
       <c r="I9" s="1">
@@ -10578,7 +10578,7 @@
         <v>93</v>
       </c>
       <c r="H13">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13">
         <v>91</v>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
+    <workbookView xWindow="13380" yWindow="0" windowWidth="15420" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,65 +241,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Atomic</c:v>
+                  <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BEM CSS</c:v>
+                  <c:v>CSS Modules</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BEM Flexboxgrid</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>OOCSS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Organic</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Raw</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SMACSS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:f>Sheet1!$G$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>104.0</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104.0</c:v>
+                  <c:v>124.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>104.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>108.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -315,11 +285,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1872659248"/>
-        <c:axId val="-1872657888"/>
+        <c:axId val="-595326512"/>
+        <c:axId val="-595324192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1872659248"/>
+        <c:axId val="-595326512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -362,7 +332,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1872657888"/>
+        <c:crossAx val="-595324192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -370,7 +340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1872657888"/>
+        <c:axId val="-595324192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -420,7 +390,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1872659248"/>
+        <c:crossAx val="-595326512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -580,64 +550,34 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Atomic</c:v>
+                  <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BEM CSS</c:v>
+                  <c:v>CSS Modules</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BEM Flexboxgrid</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>OOCSS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Organic</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Raw</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SMACSS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:f>Sheet1!$G$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>324.0</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>283.0</c:v>
+                  <c:v>299.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>260.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>297.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>290.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>342.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>288.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>288.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -654,11 +594,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1841790144"/>
-        <c:axId val="-1841564224"/>
+        <c:axId val="-595255568"/>
+        <c:axId val="-595252816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1841790144"/>
+        <c:axId val="-595255568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1841564224"/>
+        <c:crossAx val="-595252816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -709,7 +649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1841564224"/>
+        <c:axId val="-595252816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,7 +699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1841790144"/>
+        <c:crossAx val="-595255568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -886,65 +826,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:f>Sheet1!$C$11:$I$11</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Atomic</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>BEM CSS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>OOCSS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Organic</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Raw</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SMACSS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$I$13</c:f>
+              <c:f>Sheet1!$C$13:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>78.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>93.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.0</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.0</c:v>
+                  <c:v>101.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.0</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>91.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -960,11 +894,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1845168464"/>
-        <c:axId val="-1845166144"/>
+        <c:axId val="-628656864"/>
+        <c:axId val="-628654112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1845168464"/>
+        <c:axId val="-628656864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1845166144"/>
+        <c:crossAx val="-628654112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1015,7 +949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1845166144"/>
+        <c:axId val="-628654112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1845168464"/>
+        <c:crossAx val="-628656864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1217,65 +1151,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Atomic</c:v>
+                  <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BEM CSS</c:v>
+                  <c:v>CSS Modules</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BEM Flexboxgrid</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>OOCSS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Organic</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Raw</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SMACSS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$I$3</c:f>
+              <c:f>Sheet1!$G$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>220.0</c:v>
+                  <c:v>152.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>179.0</c:v>
+                  <c:v>175.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>151.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>192.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>238.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>210.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>180.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1291,11 +1195,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1852186784"/>
-        <c:axId val="-1852184464"/>
+        <c:axId val="-628763776"/>
+        <c:axId val="-628761456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1852186784"/>
+        <c:axId val="-628763776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,7 +1242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1852184464"/>
+        <c:crossAx val="-628761456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1346,7 +1250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1852184464"/>
+        <c:axId val="-628761456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +1301,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1852186784"/>
+        <c:crossAx val="-628763776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1549,65 +1453,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:f>Sheet1!$D$6:$J$6</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Atomic</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BEM CSS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>CSS Modules</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>OOCSS</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Organic</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Raw</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SMACSS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$I$7</c:f>
+              <c:f>Sheet1!$D$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.5</c:v>
+                  <c:v>6.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.93</c:v>
+                  <c:v>4.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.36</c:v>
+                  <c:v>4.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4.1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.72</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.86</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>3.89</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,11 +1515,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1841499648"/>
-        <c:axId val="-1841497328"/>
+        <c:axId val="-664248016"/>
+        <c:axId val="-628756288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1841499648"/>
+        <c:axId val="-664248016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,7 +1562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1841497328"/>
+        <c:crossAx val="-628756288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1678,7 +1570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1841497328"/>
+        <c:axId val="-628756288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1728,7 +1620,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1841499648"/>
+        <c:crossAx val="-664248016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1880,65 +1772,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:f>Sheet1!$D$6:$J$6</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Atomic</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BEM CSS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>CSS Modules</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>OOCSS</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Organic</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Raw</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SMACSS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$I$8</c:f>
+              <c:f>Sheet1!$D$8:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.38</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.43</c:v>
+                  <c:v>2.96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.31</c:v>
+                  <c:v>2.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.59</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.37</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1954,11 +1834,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1852175920"/>
-        <c:axId val="-1852173600"/>
+        <c:axId val="-628732560"/>
+        <c:axId val="-628729808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1852175920"/>
+        <c:axId val="-628732560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2001,7 +1881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1852173600"/>
+        <c:crossAx val="-628729808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2009,7 +1889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1852173600"/>
+        <c:axId val="-628729808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +1939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1852175920"/>
+        <c:crossAx val="-628732560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2211,65 +2091,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:f>Sheet1!$D$6:$J$6</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Atomic</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BEM CSS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>CSS Modules</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>OOCSS</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Organic</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Raw</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SMACSS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$I$9</c:f>
+              <c:f>Sheet1!$D$9:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.2</c:v>
+                  <c:v>9.190000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>8.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7.31</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.36</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.529999999999999</c:v>
+                  <c:v>8.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.029999999999999</c:v>
+                  <c:v>6.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.48</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.87</c:v>
+                  <c:v>6.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2285,11 +2153,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1845411200"/>
-        <c:axId val="-1845386016"/>
+        <c:axId val="-595306368"/>
+        <c:axId val="-595304048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1845411200"/>
+        <c:axId val="-595306368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2332,7 +2200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1845386016"/>
+        <c:crossAx val="-595304048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2340,7 +2208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1845386016"/>
+        <c:axId val="-595304048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2360,6 +2228,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2390,7 +2259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1845411200"/>
+        <c:crossAx val="-595306368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2517,65 +2386,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:f>Sheet1!$C$11:$I$11</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Atomic</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>BEM CSS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>OOCSS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Organic</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Raw</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SMACSS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$I$12</c:f>
+              <c:f>Sheet1!$C$12:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>74.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.0</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.0</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.0</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,11 +2454,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1844602160"/>
-        <c:axId val="-1844599840"/>
+        <c:axId val="-628697200"/>
+        <c:axId val="-628694448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1844602160"/>
+        <c:axId val="-628697200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,7 +2501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1844599840"/>
+        <c:crossAx val="-628694448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2646,7 +2509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1844599840"/>
+        <c:axId val="-628694448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2696,7 +2559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1844602160"/>
+        <c:crossAx val="-628697200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2823,65 +2686,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:f>Sheet1!$C$11:$I$11</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Atomic</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>BEM CSS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>OOCSS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Organic</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Raw</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SMACSS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$I$14</c:f>
+              <c:f>Sheet1!$C$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>71.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.0</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.0</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.0</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2897,11 +2754,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1841478096"/>
-        <c:axId val="-1842121920"/>
+        <c:axId val="-664229296"/>
+        <c:axId val="-664226544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1841478096"/>
+        <c:axId val="-664229296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2944,7 +2801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842121920"/>
+        <c:crossAx val="-664226544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2952,7 +2809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1842121920"/>
+        <c:axId val="-664226544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,7 +2859,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1841478096"/>
+        <c:crossAx val="-664229296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3129,42 +2986,39 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:f>Sheet1!$C$11:$I$11</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Atomic</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>BEM CSS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>OOCSS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Organic</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Raw</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SMACSS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$I$15</c:f>
+              <c:f>Sheet1!$C$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -3172,22 +3026,19 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3203,11 +3054,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1842177264"/>
-        <c:axId val="-1842174944"/>
+        <c:axId val="-628689088"/>
+        <c:axId val="-628686336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1842177264"/>
+        <c:axId val="-628689088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3250,7 +3101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842174944"/>
+        <c:crossAx val="-628686336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3258,7 +3109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1842174944"/>
+        <c:axId val="-628686336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3308,7 +3159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842177264"/>
+        <c:crossAx val="-628689088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3435,50 +3286,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:f>Sheet1!$C$11:$I$11</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Atomic</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>BEM CSS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>OOCSS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Organic</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Raw</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SMACSS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$I$16</c:f>
+              <c:f>Sheet1!$C$16:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.2</c:v>
@@ -3487,13 +3335,10 @@
                   <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3509,11 +3354,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1957830528"/>
-        <c:axId val="-1957828208"/>
+        <c:axId val="-595277088"/>
+        <c:axId val="-595275328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1957830528"/>
+        <c:axId val="-595277088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3556,7 +3401,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1957828208"/>
+        <c:crossAx val="-595275328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3564,7 +3409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1957828208"/>
+        <c:axId val="-595275328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3615,7 +3460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1957830528"/>
+        <c:crossAx val="-595277088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10237,16 +10082,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -10254,28 +10100,28 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -10283,28 +10129,28 @@
         <v>9</v>
       </c>
       <c r="B2" s="1">
+        <v>98</v>
+      </c>
+      <c r="C2" s="1">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1">
         <v>104</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>104</v>
       </c>
-      <c r="D2" s="1">
-        <v>109</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
+        <v>104</v>
+      </c>
+      <c r="G2" s="1">
+        <v>108</v>
+      </c>
+      <c r="H2" s="1">
         <v>124</v>
       </c>
-      <c r="F2" s="1">
-        <v>98</v>
-      </c>
-      <c r="G2" s="1">
-        <v>104</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>78</v>
-      </c>
-      <c r="I2" s="1">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -10312,28 +10158,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D3" s="1">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="E3" s="1">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="F3" s="1">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G3" s="1">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="H3" s="1">
+        <v>175</v>
+      </c>
+      <c r="I3" s="1">
         <v>210</v>
-      </c>
-      <c r="I3" s="1">
-        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -10341,35 +10187,35 @@
         <v>18</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:I4" si="0">B2+B3</f>
-        <v>324</v>
+        <f>B2+B3</f>
+        <v>293</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
-        <v>283</v>
+        <f>C2+C3</f>
+        <v>288</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
+        <f>D2+D3</f>
+        <v>325</v>
+      </c>
+      <c r="E4" s="1">
+        <f>E2+E3</f>
+        <v>345</v>
+      </c>
+      <c r="F4" s="1">
+        <f>F2+F3</f>
+        <v>285</v>
+      </c>
+      <c r="G4" s="1">
+        <f>G2+G3</f>
         <v>260</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>297</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>290</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>342</v>
-      </c>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>288</v>
+        <f>H2+H3</f>
+        <v>299</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
+        <f>I2+I3</f>
         <v>288</v>
       </c>
     </row>
@@ -10378,28 +10224,28 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -10407,28 +10253,28 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
       <c r="C7" s="1">
-        <v>4.93</v>
+        <v>5.5</v>
       </c>
       <c r="D7" s="1">
-        <v>5.36</v>
+        <v>6.49</v>
       </c>
       <c r="E7" s="1">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="H7" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F7" s="1">
-        <v>4.72</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>3.89</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5.5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -10436,28 +10282,28 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.3730000000000002</v>
+      </c>
+      <c r="D8" s="1">
         <v>2.7</v>
       </c>
-      <c r="C8" s="1">
-        <v>2.38</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
       <c r="E8" s="1">
-        <v>2.4300000000000002</v>
+        <v>3.57</v>
       </c>
       <c r="F8" s="1">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="G8" s="1">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="H8" s="1">
-        <v>2.59</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I8" s="1">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -10466,35 +10312,35 @@
       </c>
       <c r="B9" s="1">
         <f>B7+B8</f>
-        <v>9.1999999999999993</v>
+        <v>7.02</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:H9" si="1">C7+C8</f>
-        <v>7.31</v>
+        <f>C7+C8</f>
+        <v>7.8730000000000002</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>9.36</v>
+        <f>D7+D8</f>
+        <v>9.1900000000000013</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>6.5299999999999994</v>
+        <f>E7+E8</f>
+        <v>8.42</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>7.0299999999999994</v>
+        <f>F7+F8</f>
+        <v>7.3100000000000005</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>8.41</v>
+        <f>G7+G8</f>
+        <v>8.17</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>6.48</v>
+        <f>H7+H8</f>
+        <v>6.55</v>
       </c>
       <c r="I9" s="1">
         <f>I7+I8</f>
-        <v>7.87</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -10502,173 +10348,173 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1">
         <v>74</v>
       </c>
-      <c r="C12">
+      <c r="E12" s="1">
+        <v>79</v>
+      </c>
+      <c r="F12" s="1">
         <v>29</v>
       </c>
-      <c r="D12">
+      <c r="G12" s="1">
         <v>45</v>
       </c>
-      <c r="E12">
+      <c r="H12" s="1">
         <v>29</v>
       </c>
-      <c r="F12">
-        <v>34</v>
-      </c>
-      <c r="G12">
-        <v>78</v>
-      </c>
-      <c r="H12">
+      <c r="I12" s="1">
         <v>48</v>
-      </c>
-      <c r="I12">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
+        <v>93</v>
+      </c>
+      <c r="C13" s="1">
+        <v>91</v>
+      </c>
+      <c r="D13" s="1">
         <v>78</v>
       </c>
-      <c r="C13">
+      <c r="E13" s="1">
         <v>93</v>
       </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13">
-        <v>93</v>
-      </c>
-      <c r="F13">
-        <v>91</v>
-      </c>
-      <c r="G13">
-        <v>93</v>
-      </c>
-      <c r="H13">
+      <c r="F13" s="1">
+        <v>94</v>
+      </c>
+      <c r="G13" s="1">
+        <v>101</v>
+      </c>
+      <c r="H13" s="1">
+        <v>94</v>
+      </c>
+      <c r="I13" s="1">
         <v>85</v>
-      </c>
-      <c r="I13">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
         <v>71</v>
       </c>
-      <c r="C14">
+      <c r="E14" s="1">
+        <v>54</v>
+      </c>
+      <c r="F14" s="1">
         <v>29</v>
       </c>
-      <c r="D14">
+      <c r="G14" s="1">
         <v>37</v>
       </c>
-      <c r="E14">
+      <c r="H14" s="1">
         <v>29</v>
       </c>
-      <c r="F14">
-        <v>34</v>
-      </c>
-      <c r="G14">
-        <v>54</v>
-      </c>
-      <c r="H14">
+      <c r="I14" s="1">
         <v>43</v>
-      </c>
-      <c r="I14">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="E15" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
         <v>1.2</v>
       </c>
-      <c r="E15">
+      <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.4</v>
-      </c>
-      <c r="H15">
+      <c r="I15" s="1">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="D16" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C16">
+      <c r="E16" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F16" s="1">
         <v>3.2</v>
       </c>
-      <c r="D16">
+      <c r="G16" s="1">
         <v>2.7</v>
       </c>
-      <c r="E16">
+      <c r="H16" s="1">
         <v>3.2</v>
       </c>
-      <c r="F16">
-        <v>2.7</v>
-      </c>
-      <c r="G16">
-        <v>1.7</v>
-      </c>
-      <c r="H16">
+      <c r="I16" s="1">
         <v>2</v>
-      </c>
-      <c r="I16">
-        <v>2.54</v>
       </c>
     </row>
   </sheetData>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="0" windowWidth="15420" windowHeight="18000" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,31 +153,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>HTML (Number of lines)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -220,11 +195,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HTML</c:v>
+                  <c:v>Selectors</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -241,16 +216,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:f>Sheet1!$B$11:$I$11</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>OOCSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Atomic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BEM CSS</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>CSS Modules</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>Raw</c:v>
                 </c:pt>
               </c:strCache>
@@ -258,18 +248,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$J$2</c:f>
+              <c:f>Sheet1!$B$12:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>108.0</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.0</c:v>
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -285,11 +290,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-595326512"/>
-        <c:axId val="-595324192"/>
+        <c:axId val="-628697200"/>
+        <c:axId val="-628694448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-595326512"/>
+        <c:axId val="-628697200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,7 +337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595324192"/>
+        <c:crossAx val="-628694448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -340,7 +345,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-595324192"/>
+        <c:axId val="-628694448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -390,7 +395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595326512"/>
+        <c:crossAx val="-628697200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -474,16 +479,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total (Number</a:t>
+              <a:t>CSS</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of lines</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> (Files sizes)</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>)</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -529,11 +537,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>CSS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -550,16 +558,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>OOCSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Atomic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BEM CSS</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>CSS Modules</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>Raw</c:v>
                 </c:pt>
               </c:strCache>
@@ -567,18 +590,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$J$4</c:f>
+              <c:f>Sheet1!$B$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>260.0</c:v>
+                  <c:v>2.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>299.0</c:v>
+                  <c:v>2.373</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>288.0</c:v>
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,11 +632,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-595255568"/>
-        <c:axId val="-595252816"/>
+        <c:axId val="-589769776"/>
+        <c:axId val="-591923728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-595255568"/>
+        <c:axId val="-589769776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595252816"/>
+        <c:crossAx val="-591923728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -649,7 +687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-595252816"/>
+        <c:axId val="-591923728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +737,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595255568"/>
+        <c:crossAx val="-589769776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -763,6 +801,1267 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> (Files sizes)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>OOCSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Atomic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BEM CSS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BEM Flexboxgrid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CSS Modules</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Raw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-591269920"/>
+        <c:axId val="-592437200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-591269920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-592437200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-592437200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-591269920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rules</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>OOCSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Atomic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BEM CSS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BEM Flexboxgrid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CSS Modules</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Raw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-664229296"/>
+        <c:axId val="-664226544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-664229296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-664226544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-664226544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-664229296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S/R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>OOCSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Atomic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BEM CSS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BEM Flexboxgrid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CSS Modules</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Raw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-628689088"/>
+        <c:axId val="-628686336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-628689088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-628686336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-628686336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-628689088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D/R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>OOCSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Atomic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BEM CSS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BEM Flexboxgrid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CSS Modules</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Raw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-595277088"/>
+        <c:axId val="-595275328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-595277088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-595275328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-595275328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-595277088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -826,28 +2125,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$11:$I$11</c:f>
+              <c:f>Sheet1!$B$11:$I$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>OOCSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>SMACSS</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Atomic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Organic</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>BEM CSS</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>CSS Modules</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Raw</c:v>
                 </c:pt>
               </c:strCache>
@@ -855,29 +2157,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$I$13</c:f>
+              <c:f>Sheet1!$B$13:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>91.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>78.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>93.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>94.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>101.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>94.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>85.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1048,7 +2353,338 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HTML (Number of lines)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTML</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>OOCSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Atomic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BEM CSS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BEM Flexboxgrid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CSS Modules</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Raw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-593157328"/>
+        <c:axId val="-592765024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-593157328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-592765024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-592765024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-593157328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1151,16 +2787,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>OOCSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Atomic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BEM CSS</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>CSS Modules</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>Raw</c:v>
                 </c:pt>
               </c:strCache>
@@ -1168,17 +2819,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$J$3</c:f>
+              <c:f>Sheet1!$B$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>241.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>152.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>175.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>210.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1195,11 +2861,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-628763776"/>
-        <c:axId val="-628761456"/>
+        <c:axId val="-591994608"/>
+        <c:axId val="-593632448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-628763776"/>
+        <c:axId val="-591994608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,7 +2908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-628761456"/>
+        <c:crossAx val="-593632448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1250,327 +2916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-628761456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-628763776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>HTML (File sizes)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HTML</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$D$6:$J$6</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Atomic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Organic</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BEM CSS</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BEM Flexboxgrid</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Raw</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$7:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>6.49</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.91</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.89</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-664248016"/>
-        <c:axId val="-628756288"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-664248016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-628756288"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-628756288"/>
+        <c:axId val="-593632448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,1246 +2966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-664248016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CSS (File sizes)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CSS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$D$6:$J$6</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Atomic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Organic</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BEM CSS</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BEM Flexboxgrid</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Raw</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$8:$J$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.57</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.57</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-628732560"/>
-        <c:axId val="-628729808"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-628732560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-628729808"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-628729808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-628732560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total (File sizes)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$D$6:$J$6</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Atomic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Organic</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BEM CSS</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BEM Flexboxgrid</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Raw</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$9:$J$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9.190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.55</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.46</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-595306368"/>
-        <c:axId val="-595304048"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-595306368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-595304048"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-595304048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-595306368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selectors</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$11:$I$11</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>SMACSS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Atomic</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organic</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BEM CSS</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BEM Flexboxgrid</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Raw</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$12:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-628697200"/>
-        <c:axId val="-628694448"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-628697200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-628694448"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-628694448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-628697200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rules</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$11:$I$11</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>SMACSS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Atomic</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organic</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BEM CSS</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BEM Flexboxgrid</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Raw</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$14:$I$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-664229296"/>
-        <c:axId val="-664226544"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-664229296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-664226544"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-664226544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-664229296"/>
+        <c:crossAx val="-591994608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2923,6 +3030,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(Number of lines)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2965,11 +3108,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$15</c:f>
+              <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S/R</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2986,28 +3129,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$11:$I$11</c:f>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>OOCSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>SMACSS</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Atomic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Organic</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>BEM CSS</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>CSS Modules</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Raw</c:v>
                 </c:pt>
               </c:strCache>
@@ -3015,30 +3161,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$15:$I$15</c:f>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>293.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5</c:v>
+                  <c:v>325.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>345.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2</c:v>
+                  <c:v>285.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1</c:v>
+                  <c:v>299.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3054,11 +3203,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-628689088"/>
-        <c:axId val="-628686336"/>
+        <c:axId val="-594838768"/>
+        <c:axId val="-592715952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-628689088"/>
+        <c:axId val="-594838768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3101,7 +3250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-628686336"/>
+        <c:crossAx val="-592715952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3109,7 +3258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-628686336"/>
+        <c:axId val="-592715952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3159,7 +3308,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-628689088"/>
+        <c:crossAx val="-594838768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3223,6 +3372,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HTML (Files sizes)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3265,11 +3439,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$16</c:f>
+              <c:f>Sheet1!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>D/R</c:v>
+                  <c:v>HTML</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3286,28 +3460,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$11:$I$11</c:f>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>OOCSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>SMACSS</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Atomic</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Organic</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>BEM CSS</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>CSS Modules</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Raw</c:v>
                 </c:pt>
               </c:strCache>
@@ -3315,30 +3492,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$16:$I$16</c:f>
+              <c:f>Sheet1!$B$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.56</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7</c:v>
+                  <c:v>6.49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2</c:v>
+                  <c:v>4.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7</c:v>
+                  <c:v>4.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2</c:v>
+                  <c:v>5.21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3354,11 +3534,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-595277088"/>
-        <c:axId val="-595275328"/>
+        <c:axId val="-595029648"/>
+        <c:axId val="-593374576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-595277088"/>
+        <c:axId val="-595029648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3401,7 +3581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595275328"/>
+        <c:crossAx val="-593374576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3409,7 +3589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-595275328"/>
+        <c:axId val="-593374576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3429,7 +3609,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3460,7 +3639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595277088"/>
+        <c:crossAx val="-595029648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9486,156 +9665,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
@@ -9658,7 +9687,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9688,7 +9717,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9718,7 +9747,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9748,37 +9777,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9800,6 +9799,186 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10082,8 +10261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -290,11 +290,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-628697200"/>
-        <c:axId val="-628694448"/>
+        <c:axId val="-847738256"/>
+        <c:axId val="-770702176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-628697200"/>
+        <c:axId val="-847738256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -337,7 +337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-628694448"/>
+        <c:crossAx val="-770702176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -345,7 +345,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-628694448"/>
+        <c:axId val="-770702176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,7 +395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-628697200"/>
+        <c:crossAx val="-847738256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -632,11 +632,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-589769776"/>
-        <c:axId val="-591923728"/>
+        <c:axId val="-850423648"/>
+        <c:axId val="-850421328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-589769776"/>
+        <c:axId val="-850423648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,7 +679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-591923728"/>
+        <c:crossAx val="-850421328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -687,7 +687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-591923728"/>
+        <c:axId val="-850421328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,7 +737,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-589769776"/>
+        <c:crossAx val="-850423648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -974,11 +974,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-591269920"/>
-        <c:axId val="-592437200"/>
+        <c:axId val="-813343520"/>
+        <c:axId val="-813340768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-591269920"/>
+        <c:axId val="-813343520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,7 +1021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-592437200"/>
+        <c:crossAx val="-813340768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1029,7 +1029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-592437200"/>
+        <c:axId val="-813340768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-591269920"/>
+        <c:crossAx val="-813343520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1280,11 +1280,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-664229296"/>
-        <c:axId val="-664226544"/>
+        <c:axId val="-848532336"/>
+        <c:axId val="-848529584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-664229296"/>
+        <c:axId val="-848532336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1327,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-664226544"/>
+        <c:crossAx val="-848529584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1335,7 +1335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-664226544"/>
+        <c:axId val="-848529584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-664229296"/>
+        <c:crossAx val="-848532336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1586,11 +1586,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-628689088"/>
-        <c:axId val="-628686336"/>
+        <c:axId val="-848510288"/>
+        <c:axId val="-848507536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-628689088"/>
+        <c:axId val="-848510288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1633,7 +1633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-628686336"/>
+        <c:crossAx val="-848507536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1641,7 +1641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-628686336"/>
+        <c:axId val="-848507536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-628689088"/>
+        <c:crossAx val="-848510288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1892,11 +1892,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-595277088"/>
-        <c:axId val="-595275328"/>
+        <c:axId val="-847407728"/>
+        <c:axId val="-847405408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-595277088"/>
+        <c:axId val="-847407728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,7 +1939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595275328"/>
+        <c:crossAx val="-847405408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1947,7 +1947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-595275328"/>
+        <c:axId val="-847405408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,7 +1998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595277088"/>
+        <c:crossAx val="-847407728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2199,11 +2199,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-628656864"/>
-        <c:axId val="-628654112"/>
+        <c:axId val="-847383376"/>
+        <c:axId val="-847380624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-628656864"/>
+        <c:axId val="-847383376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2246,7 +2246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-628654112"/>
+        <c:crossAx val="-847380624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2254,7 +2254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-628654112"/>
+        <c:axId val="-847380624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2304,7 +2304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-628656864"/>
+        <c:crossAx val="-847383376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2493,13 +2493,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>98.0</c:v>
+                  <c:v>101.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>108.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>104.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>104.0</c:v>
@@ -2530,11 +2530,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-593157328"/>
-        <c:axId val="-592765024"/>
+        <c:axId val="-813418000"/>
+        <c:axId val="-813415680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-593157328"/>
+        <c:axId val="-813418000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2577,7 +2577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-592765024"/>
+        <c:crossAx val="-813415680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2585,7 +2585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-592765024"/>
+        <c:axId val="-813415680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2635,7 +2635,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-593157328"/>
+        <c:crossAx val="-813418000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2824,13 +2824,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>195.0</c:v>
+                  <c:v>233.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180.0</c:v>
+                  <c:v>219.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>221.0</c:v>
+                  <c:v>224.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>241.0</c:v>
@@ -2861,11 +2861,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-591994608"/>
-        <c:axId val="-593632448"/>
+        <c:axId val="-847367728"/>
+        <c:axId val="-847364976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-591994608"/>
+        <c:axId val="-847367728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2908,7 +2908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-593632448"/>
+        <c:crossAx val="-847364976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2916,7 +2916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-593632448"/>
+        <c:axId val="-847364976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2966,7 +2966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-591994608"/>
+        <c:crossAx val="-847367728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3166,13 +3166,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>293.0</c:v>
+                  <c:v>334.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>288.0</c:v>
+                  <c:v>330.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>325.0</c:v>
+                  <c:v>332.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>345.0</c:v>
@@ -3203,11 +3203,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-594838768"/>
-        <c:axId val="-592715952"/>
+        <c:axId val="-813389376"/>
+        <c:axId val="-813386624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-594838768"/>
+        <c:axId val="-813389376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3250,7 +3250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-592715952"/>
+        <c:crossAx val="-813386624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3258,7 +3258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-592715952"/>
+        <c:axId val="-813386624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3308,7 +3308,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-594838768"/>
+        <c:crossAx val="-813389376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3534,11 +3534,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-595029648"/>
-        <c:axId val="-593374576"/>
+        <c:axId val="-813361392"/>
+        <c:axId val="-813358640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-595029648"/>
+        <c:axId val="-813361392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3581,7 +3581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-593374576"/>
+        <c:crossAx val="-813358640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3589,7 +3589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-593374576"/>
+        <c:axId val="-813358640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3639,7 +3639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595029648"/>
+        <c:crossAx val="-813361392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10261,8 +10261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C14" sqref="B14:C14"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10308,13 +10308,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1">
         <v>108</v>
-      </c>
-      <c r="D2" s="1">
-        <v>104</v>
       </c>
       <c r="E2" s="1">
         <v>104</v>
@@ -10337,13 +10337,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="D3" s="1">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E3" s="1">
         <v>241</v>
@@ -10366,35 +10366,35 @@
         <v>18</v>
       </c>
       <c r="B4" s="1">
-        <f>B2+B3</f>
-        <v>293</v>
+        <f t="shared" ref="B4:I4" si="0">B2+B3</f>
+        <v>334</v>
       </c>
       <c r="C4" s="1">
-        <f>C2+C3</f>
-        <v>288</v>
+        <f t="shared" si="0"/>
+        <v>330</v>
       </c>
       <c r="D4" s="1">
-        <f>D2+D3</f>
-        <v>325</v>
+        <f t="shared" si="0"/>
+        <v>332</v>
       </c>
       <c r="E4" s="1">
-        <f>E2+E3</f>
+        <f t="shared" si="0"/>
         <v>345</v>
       </c>
       <c r="F4" s="1">
-        <f>F2+F3</f>
+        <f t="shared" si="0"/>
         <v>285</v>
       </c>
       <c r="G4" s="1">
-        <f>G2+G3</f>
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
       <c r="H4" s="1">
-        <f>H2+H3</f>
+        <f t="shared" si="0"/>
         <v>299</v>
       </c>
       <c r="I4" s="1">
-        <f>I2+I3</f>
+        <f t="shared" si="0"/>
         <v>288</v>
       </c>
     </row>
@@ -10490,35 +10490,35 @@
         <v>18</v>
       </c>
       <c r="B9" s="1">
-        <f>B7+B8</f>
+        <f t="shared" ref="B9:I9" si="1">B7+B8</f>
         <v>7.02</v>
       </c>
       <c r="C9" s="1">
-        <f>C7+C8</f>
+        <f t="shared" si="1"/>
         <v>7.8730000000000002</v>
       </c>
       <c r="D9" s="1">
-        <f>D7+D8</f>
+        <f t="shared" si="1"/>
         <v>9.1900000000000013</v>
       </c>
       <c r="E9" s="1">
-        <f>E7+E8</f>
+        <f t="shared" si="1"/>
         <v>8.42</v>
       </c>
       <c r="F9" s="1">
-        <f>F7+F8</f>
+        <f t="shared" si="1"/>
         <v>7.3100000000000005</v>
       </c>
       <c r="G9" s="1">
-        <f>G7+G8</f>
+        <f t="shared" si="1"/>
         <v>8.17</v>
       </c>
       <c r="H9" s="1">
-        <f>H7+H8</f>
+        <f t="shared" si="1"/>
         <v>6.55</v>
       </c>
       <c r="I9" s="1">
-        <f>I7+I8</f>
+        <f t="shared" si="1"/>
         <v>6.46</v>
       </c>
     </row>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Atomic</t>
   </si>
@@ -85,18 +85,50 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>BEM Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,16 +148,370 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="175">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -216,9 +602,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:f>Sheet1!$B$11:$J$11</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>OOCSS</c:v>
                 </c:pt>
@@ -235,12 +621,15 @@
                   <c:v>BEM CSS</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>BEM Platform</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>CSS Modules</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Raw</c:v>
                 </c:pt>
               </c:strCache>
@@ -248,33 +637,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$I$12</c:f>
+              <c:f>Sheet1!$B$12:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>37.0</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>282.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>30.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>48.0</c:v>
+                <c:pt idx="8">
+                  <c:v>49.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -464,13 +856,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -478,20 +884,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CSS</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> (Files sizes)</a:t>
+              <a:t>Total (Number of lines)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -508,13 +908,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -537,11 +951,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
+              <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CSS</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -558,9 +972,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:f>Sheet1!$B$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>OOCSS</c:v>
                 </c:pt>
@@ -577,12 +991,15 @@
                   <c:v>BEM CSS</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>BEM Platform</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>CSS Modules</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Raw</c:v>
                 </c:pt>
               </c:strCache>
@@ -590,33 +1007,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$I$8</c:f>
+              <c:f>Sheet1!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.32</c:v>
+                  <c:v>333.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.373</c:v>
+                  <c:v>330.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7</c:v>
+                  <c:v>332.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.57</c:v>
+                  <c:v>295.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4</c:v>
+                  <c:v>361.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.96</c:v>
+                  <c:v>345.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.45</c:v>
+                  <c:v>831.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.57</c:v>
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>323.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,11 +1052,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-850423648"/>
-        <c:axId val="-850421328"/>
+        <c:axId val="-709506800"/>
+        <c:axId val="-709559952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-850423648"/>
+        <c:axId val="-709506800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,7 +1099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-850421328"/>
+        <c:crossAx val="-709559952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -687,7 +1107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-850421328"/>
+        <c:axId val="-709559952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,7 +1157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-850423648"/>
+        <c:crossAx val="-709506800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -821,19 +1241,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total</a:t>
+              <a:t>  HTML (Number of lines)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> (Files sizes)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -879,11 +1288,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
+              <c:f>Sheet1!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>HTML</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -900,9 +1309,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:f>Sheet1!$B$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>OOCSS</c:v>
                 </c:pt>
@@ -919,12 +1328,15 @@
                   <c:v>BEM CSS</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>BEM Platform</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>CSS Modules</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Raw</c:v>
                 </c:pt>
               </c:strCache>
@@ -932,33 +1344,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$I$9</c:f>
+              <c:f>Sheet1!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.02</c:v>
+                  <c:v>101.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.873</c:v>
+                  <c:v>111.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.190000000000001</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.42</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.31</c:v>
+                  <c:v>117.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.17</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.55</c:v>
+                  <c:v>117.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.46</c:v>
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,11 +1389,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-813343520"/>
-        <c:axId val="-813340768"/>
+        <c:axId val="-741985392"/>
+        <c:axId val="-709295200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-813343520"/>
+        <c:axId val="-741985392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,7 +1436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-813340768"/>
+        <c:crossAx val="-709295200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1029,7 +1444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-813340768"/>
+        <c:axId val="-709295200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-813343520"/>
+        <c:crossAx val="-741985392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1206,9 +1621,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:f>Sheet1!$B$11:$J$11</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>OOCSS</c:v>
                 </c:pt>
@@ -1225,12 +1640,15 @@
                   <c:v>BEM CSS</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>BEM Platform</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>CSS Modules</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Raw</c:v>
                 </c:pt>
               </c:strCache>
@@ -1238,33 +1656,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$I$14</c:f>
+              <c:f>Sheet1!$B$14:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>34.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>249.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>30.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43.0</c:v>
+                <c:pt idx="8">
+                  <c:v>44.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,9 +1933,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:f>Sheet1!$B$11:$J$11</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>OOCSS</c:v>
                 </c:pt>
@@ -1531,12 +1952,15 @@
                   <c:v>BEM CSS</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>BEM Platform</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>CSS Modules</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Raw</c:v>
                 </c:pt>
               </c:strCache>
@@ -1544,10 +1968,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$I$15</c:f>
+              <c:f>Sheet1!$B$15:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.1</c:v>
                 </c:pt>
@@ -1564,12 +1988,15 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1818,9 +2245,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:f>Sheet1!$B$11:$J$11</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>OOCSS</c:v>
                 </c:pt>
@@ -1837,12 +2264,15 @@
                   <c:v>BEM CSS</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>BEM Platform</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>CSS Modules</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Raw</c:v>
                 </c:pt>
               </c:strCache>
@@ -1850,15 +2280,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$I$16</c:f>
+              <c:f>Sheet1!$B$16:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.7</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.56</c:v>
+                  <c:v>2.54</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.1</c:v>
@@ -1867,15 +2297,18 @@
                   <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>3.2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2125,9 +2558,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:f>Sheet1!$B$11:$J$11</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>OOCSS</c:v>
                 </c:pt>
@@ -2144,12 +2577,15 @@
                   <c:v>BEM CSS</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>BEM Platform</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>CSS Modules</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Raw</c:v>
                 </c:pt>
               </c:strCache>
@@ -2157,33 +2593,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$I$13</c:f>
+              <c:f>Sheet1!$B$13:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>93.0</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.0</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.0</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101.0</c:v>
+                  <c:v>103.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.0</c:v>
+                  <c:v>394.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85.0</c:v>
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2388,1010 +2827,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>HTML (Number of lines)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HTML</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>OOCSS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SMACSS</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Atomic</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Organic</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BEM CSS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BEM Flexboxgrid</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Raw</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>101.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>108.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>104.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>104.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>108.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>124.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>78.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-813418000"/>
-        <c:axId val="-813415680"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-813418000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-813415680"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-813415680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-813418000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CSS (Number of lines)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CSS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>OOCSS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SMACSS</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Atomic</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Organic</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BEM CSS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BEM Flexboxgrid</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Raw</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>233.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>219.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>224.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>241.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>181.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>152.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>175.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-847367728"/>
-        <c:axId val="-847364976"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-847367728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-847364976"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-847364976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-847367728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>(Number of lines)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>OOCSS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SMACSS</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Atomic</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Organic</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BEM CSS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BEM Flexboxgrid</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CSS Modules</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Raw</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>334.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>330.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>332.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>345.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>285.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>260.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>299.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>288.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-813389376"/>
-        <c:axId val="-813386624"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-813389376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-813386624"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-813386624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-813389376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>HTML (Files sizes)</a:t>
             </a:r>
           </a:p>
@@ -3460,9 +2895,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:f>Sheet1!$B$6:$J$6</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>OOCSS</c:v>
                 </c:pt>
@@ -3479,12 +2914,15 @@
                   <c:v>BEM CSS</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>BEM Platform</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>BEM Flexboxgrid</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>CSS Modules</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Raw</c:v>
                 </c:pt>
               </c:strCache>
@@ -3492,33 +2930,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$I$7</c:f>
+              <c:f>Sheet1!$B$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.7</c:v>
+                  <c:v>4.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5</c:v>
+                  <c:v>5.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.49</c:v>
+                  <c:v>6.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.85</c:v>
+                  <c:v>5.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.91</c:v>
+                  <c:v>5.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.21</c:v>
+                  <c:v>4.83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1</c:v>
+                  <c:v>5.87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.89</c:v>
+                  <c:v>4.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3640,6 +3081,1072 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="-813361392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CSS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> (Files sizes)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>OOCSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Atomic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BEM CSS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BEM Platform</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BEM Flexboxgrid</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CSS Modules</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Raw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-850423648"/>
+        <c:axId val="-850421328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-850423648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-850421328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-850421328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-850423648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> (Files sizes)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>OOCSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Atomic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BEM CSS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BEM Platform</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BEM Flexboxgrid</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CSS Modules</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Raw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.149000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-813343520"/>
+        <c:axId val="-813340768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-813343520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-813340768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-813340768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-813343520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>CSS (Number of lines)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>OOCSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SMACSS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Atomic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BEM CSS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BEM Platform</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BEM Flexboxgrid</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CSS Modules</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Raw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>232.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>219.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>714.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>241.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-767074224"/>
+        <c:axId val="-711155808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-767074224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-711155808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-711155808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-767074224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9672,7 +10179,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>825500</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -9702,7 +10209,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>449705</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -9732,7 +10239,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>825500</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -9755,14 +10262,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>751840</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -9785,14 +10292,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>749508</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -9808,96 +10315,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9927,7 +10344,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9935,14 +10352,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>821243</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>746647</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -9957,7 +10374,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9979,6 +10396,96 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>444661</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>438262</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>819149</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>202390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438262</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10259,10 +10766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A42" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10271,10 +10778,10 @@
     <col min="3" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="8" max="9" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -10294,16 +10801,19 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -10317,27 +10827,30 @@
         <v>108</v>
       </c>
       <c r="E2" s="1">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="G2" s="1">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H2" s="1">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I2" s="1">
-        <v>78</v>
+        <v>129</v>
+      </c>
+      <c r="J2" s="1">
+        <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1">
         <v>219</v>
@@ -10346,28 +10859,31 @@
         <v>224</v>
       </c>
       <c r="E3" s="1">
+        <v>187</v>
+      </c>
+      <c r="F3" s="1">
+        <v>244</v>
+      </c>
+      <c r="G3" s="1">
+        <v>250</v>
+      </c>
+      <c r="H3" s="1">
+        <v>714</v>
+      </c>
+      <c r="I3" s="1">
+        <v>201</v>
+      </c>
+      <c r="J3" s="1">
         <v>241</v>
       </c>
-      <c r="F3" s="1">
-        <v>181</v>
-      </c>
-      <c r="G3" s="1">
-        <v>152</v>
-      </c>
-      <c r="H3" s="1">
-        <v>175</v>
-      </c>
-      <c r="I3" s="1">
-        <v>210</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:I4" si="0">B2+B3</f>
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
@@ -10379,26 +10895,30 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>260</v>
+        <f>G2+G3</f>
+        <v>345</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>299</v>
+        <f>H2+H3</f>
+        <v>831</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>288</v>
+        <f>I2+I3</f>
+        <v>330</v>
+      </c>
+      <c r="J4" s="1">
+        <f>J2+J3</f>
+        <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -10417,112 +10937,128 @@
       <c r="F6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>4.7</v>
+        <v>4.92</v>
       </c>
       <c r="C7" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6.49</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4.8499999999999996</v>
+        <v>5.88</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6.83</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5.09</v>
       </c>
       <c r="F7" s="1">
-        <v>4.91</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5.21</v>
+        <v>5.68</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.83</v>
       </c>
       <c r="H7" s="1">
-        <v>4.0999999999999996</v>
+        <v>5.87</v>
       </c>
       <c r="I7" s="1">
-        <v>3.89</v>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>2.3199999999999998</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>2.3730000000000002</v>
+        <v>2.2690000000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>2.7</v>
+        <v>12.5</v>
       </c>
       <c r="E8" s="1">
-        <v>3.57</v>
+        <v>3.69</v>
       </c>
       <c r="F8" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2.96</v>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.79</v>
       </c>
       <c r="H8" s="1">
-        <v>2.4500000000000002</v>
+        <v>42.6</v>
       </c>
       <c r="I8" s="1">
-        <v>2.57</v>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ref="B9:I9" si="1">B7+B8</f>
-        <v>7.02</v>
+        <v>7.1400000000000006</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>7.8730000000000002</v>
+        <v>8.1490000000000009</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>9.1900000000000013</v>
+        <v>19.329999999999998</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>8.42</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>7.3100000000000005</v>
+        <v>8.23</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>8.17</v>
+        <f>G7+G8</f>
+        <v>7.62</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>6.55</v>
+        <f>H7+H8</f>
+        <v>48.47</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="1"/>
-        <v>6.46</v>
+        <f>I7+I8</f>
+        <v>6.7799999999999994</v>
+      </c>
+      <c r="J9" s="1">
+        <f>J7+J8</f>
+        <v>6.6400000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -10542,103 +11078,115 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1">
+        <v>40</v>
+      </c>
+      <c r="H12" s="3">
+        <v>282</v>
+      </c>
+      <c r="I12" s="1">
         <v>30</v>
       </c>
-      <c r="D12" s="1">
-        <v>74</v>
-      </c>
-      <c r="E12" s="1">
-        <v>79</v>
-      </c>
-      <c r="F12" s="1">
-        <v>29</v>
-      </c>
-      <c r="G12" s="1">
-        <v>45</v>
-      </c>
-      <c r="H12" s="1">
-        <v>29</v>
-      </c>
-      <c r="I12" s="1">
-        <v>48</v>
+      <c r="J12" s="1">
+        <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E13" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F13" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G13" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H13" s="1">
-        <v>94</v>
+        <v>394</v>
       </c>
       <c r="I13" s="1">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="J13" s="1">
+        <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1">
+        <v>72</v>
+      </c>
+      <c r="E14" s="1">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1">
+        <v>38</v>
+      </c>
+      <c r="G14" s="1">
+        <v>40</v>
+      </c>
+      <c r="H14" s="1">
+        <v>249</v>
+      </c>
+      <c r="I14" s="1">
         <v>30</v>
       </c>
-      <c r="D14" s="1">
-        <v>71</v>
-      </c>
-      <c r="E14" s="1">
-        <v>54</v>
-      </c>
-      <c r="F14" s="1">
-        <v>29</v>
-      </c>
-      <c r="G14" s="1">
-        <v>37</v>
-      </c>
-      <c r="H14" s="1">
-        <v>29</v>
-      </c>
-      <c r="I14" s="1">
-        <v>43</v>
+      <c r="J14" s="1">
+        <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -10658,24 +11206,27 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="C16" s="1">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="D16" s="1">
         <v>1.1000000000000001</v>
@@ -10684,15 +11235,18 @@
         <v>1.7</v>
       </c>
       <c r="F16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I16" s="1">
         <v>3.2</v>
       </c>
-      <c r="G16" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="H16" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>2</v>
       </c>
     </row>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -90,14 +90,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color rgb="FF24292E"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arimo"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,33 +107,34 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -158,7 +157,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>  HTML (Number of lines)</a:t>
+              <a:t>HTML (Number of lines)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -193,11 +192,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1710386098"/>
-        <c:axId val="619039146"/>
+        <c:axId val="1528299553"/>
+        <c:axId val="82476246"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1710386098"/>
+        <c:axId val="1528299553"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -229,10 +228,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619039146"/>
+        <c:crossAx val="82476246"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="619039146"/>
+        <c:axId val="82476246"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -280,7 +279,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1710386098"/>
+        <c:crossAx val="1528299553"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -339,11 +338,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2104787895"/>
-        <c:axId val="1470300795"/>
+        <c:axId val="282692724"/>
+        <c:axId val="1527097214"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2104787895"/>
+        <c:axId val="282692724"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,10 +374,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1470300795"/>
+        <c:crossAx val="1527097214"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1470300795"/>
+        <c:axId val="1527097214"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,7 +425,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104787895"/>
+        <c:crossAx val="282692724"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -485,11 +484,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="21394314"/>
-        <c:axId val="1903339470"/>
+        <c:axId val="879491746"/>
+        <c:axId val="355105502"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="21394314"/>
+        <c:axId val="879491746"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,10 +520,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1903339470"/>
+        <c:crossAx val="355105502"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1903339470"/>
+        <c:axId val="355105502"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,7 +571,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21394314"/>
+        <c:crossAx val="879491746"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -631,11 +630,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1340498617"/>
-        <c:axId val="708106576"/>
+        <c:axId val="757625271"/>
+        <c:axId val="845384231"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1340498617"/>
+        <c:axId val="757625271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -667,10 +666,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708106576"/>
+        <c:crossAx val="845384231"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="708106576"/>
+        <c:axId val="845384231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,7 +717,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1340498617"/>
+        <c:crossAx val="757625271"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -777,11 +776,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="878149474"/>
-        <c:axId val="2012098753"/>
+        <c:axId val="1454130433"/>
+        <c:axId val="732806300"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="878149474"/>
+        <c:axId val="1454130433"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,10 +812,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2012098753"/>
+        <c:crossAx val="732806300"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2012098753"/>
+        <c:axId val="732806300"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +863,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="878149474"/>
+        <c:crossAx val="1454130433"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -923,11 +922,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="986412468"/>
-        <c:axId val="342108233"/>
+        <c:axId val="34399329"/>
+        <c:axId val="1662002602"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="986412468"/>
+        <c:axId val="34399329"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,10 +958,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342108233"/>
+        <c:crossAx val="1662002602"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="342108233"/>
+        <c:axId val="1662002602"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1009,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986412468"/>
+        <c:crossAx val="34399329"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1069,11 +1068,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="26374204"/>
-        <c:axId val="88232579"/>
+        <c:axId val="876461354"/>
+        <c:axId val="1434923178"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="26374204"/>
+        <c:axId val="876461354"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,10 +1104,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88232579"/>
+        <c:crossAx val="1434923178"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88232579"/>
+        <c:axId val="1434923178"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1155,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26374204"/>
+        <c:crossAx val="876461354"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1215,11 +1214,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1652829784"/>
-        <c:axId val="1237552182"/>
+        <c:axId val="735497437"/>
+        <c:axId val="1695879077"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1652829784"/>
+        <c:axId val="735497437"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,10 +1250,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1237552182"/>
+        <c:crossAx val="1695879077"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1237552182"/>
+        <c:axId val="1695879077"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,7 +1301,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1652829784"/>
+        <c:crossAx val="735497437"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1361,11 +1360,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="794708089"/>
-        <c:axId val="1241704784"/>
+        <c:axId val="648159741"/>
+        <c:axId val="1319340453"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="794708089"/>
+        <c:axId val="648159741"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,10 +1396,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1241704784"/>
+        <c:crossAx val="1319340453"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1241704784"/>
+        <c:axId val="1319340453"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1447,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="794708089"/>
+        <c:crossAx val="648159741"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1507,11 +1506,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1922083458"/>
-        <c:axId val="1393543443"/>
+        <c:axId val="1847084984"/>
+        <c:axId val="1277424421"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1922083458"/>
+        <c:axId val="1847084984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1543,10 +1542,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1393543443"/>
+        <c:crossAx val="1277424421"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1393543443"/>
+        <c:axId val="1277424421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1594,7 +1593,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1922083458"/>
+        <c:crossAx val="1847084984"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1653,11 +1652,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="83239681"/>
-        <c:axId val="1599925979"/>
+        <c:axId val="2040581024"/>
+        <c:axId val="28795673"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83239681"/>
+        <c:axId val="2040581024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,10 +1688,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1599925979"/>
+        <c:crossAx val="28795673"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1599925979"/>
+        <c:axId val="28795673"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,7 +1739,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83239681"/>
+        <c:crossAx val="2040581024"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2141,70 +2140,70 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2">
-        <v>101.0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>111.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>108.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>108.0</v>
+      <c r="B2" s="4">
+        <v>116.0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>125.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>114.0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>122.0</v>
       </c>
       <c r="F2" s="3">
-        <v>117.0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>117.0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>95.0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>117.0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>129.0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>82.0</v>
+        <v>127.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>131.0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>105.0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>133.0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>144.0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>96.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2">
-        <v>232.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>219.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>224.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>187.0</v>
+      <c r="B3" s="4">
+        <v>233.0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>220.0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>231.0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>255.0</v>
       </c>
       <c r="F3" s="3">
-        <v>6231.0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>244.0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>250.0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>714.0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>201.0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>241.0</v>
+        <v>6232.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>245.0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>260.0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1074.0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>220.0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>242.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -2212,54 +2211,58 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:E4" si="1">B2+B3</f>
-        <v>333</v>
+        <f t="shared" ref="B4:K4" si="1">B2+B3</f>
+        <v>349</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="F4" s="3">
-        <v>6348.0</v>
+        <f t="shared" si="1"/>
+        <v>6359</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:K4" si="2">G2+G3</f>
-        <v>361</v>
+        <f t="shared" si="1"/>
+        <v>376</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="2"/>
-        <v>345</v>
+        <f t="shared" si="1"/>
+        <v>365</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="2"/>
-        <v>831</v>
+        <f t="shared" si="1"/>
+        <v>1207</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="2"/>
-        <v>330</v>
+        <f t="shared" si="1"/>
+        <v>364</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="2"/>
-        <v>323</v>
+        <f t="shared" si="1"/>
+        <v>338</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -2300,35 +2303,35 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
-        <v>4.92</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5.88</v>
-      </c>
-      <c r="D7" s="5">
-        <v>6.83</v>
-      </c>
-      <c r="E7" s="5">
-        <v>5.09</v>
+      <c r="B7" s="4">
+        <v>5.17</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6.09</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6.24</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5.28</v>
       </c>
       <c r="F7" s="3">
-        <v>6.28</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5.68</v>
-      </c>
-      <c r="H7" s="5">
-        <v>4.83</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5.87</v>
-      </c>
-      <c r="J7" s="2">
-        <v>4.27</v>
-      </c>
-      <c r="K7" s="5">
-        <v>4.11</v>
+        <v>6.26</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5.02</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6.07</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4.41</v>
+      </c>
+      <c r="K7" s="7">
+        <v>4.31</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -2338,29 +2341,29 @@
       <c r="B8" s="2">
         <v>2.22</v>
       </c>
-      <c r="C8" s="2">
-        <v>2.269</v>
-      </c>
-      <c r="D8" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3.69</v>
+      <c r="C8" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.82</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.59</v>
       </c>
       <c r="F8" s="3">
-        <v>2.55</v>
+        <v>148.0</v>
       </c>
       <c r="G8" s="2">
         <v>2.55</v>
       </c>
-      <c r="H8" s="5">
-        <v>2.79</v>
-      </c>
-      <c r="I8" s="2">
-        <v>42.6</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2.51</v>
+      <c r="H8" s="7">
+        <v>2.77</v>
+      </c>
+      <c r="I8" s="4">
+        <v>42.8</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2.35</v>
       </c>
       <c r="K8" s="2">
         <v>2.53</v>
@@ -2374,54 +2377,58 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" ref="B9:E9" si="3">B7+B8</f>
-        <v>7.14</v>
+        <f t="shared" ref="B9:K9" si="2">B7+B8</f>
+        <v>7.39</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="3"/>
-        <v>8.149</v>
+        <f t="shared" si="2"/>
+        <v>8.34</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="3"/>
-        <v>19.33</v>
+        <f t="shared" si="2"/>
+        <v>9.06</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="3"/>
-        <v>8.78</v>
-      </c>
-      <c r="F9" s="3">
-        <v>4.83</v>
+        <f t="shared" si="2"/>
+        <v>8.87</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="2"/>
+        <v>154.26</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" ref="G9:K9" si="4">G7+G8</f>
-        <v>8.23</v>
+        <f t="shared" si="2"/>
+        <v>8.45</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="4"/>
-        <v>7.62</v>
+        <f t="shared" si="2"/>
+        <v>7.79</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="4"/>
-        <v>48.47</v>
+        <f t="shared" si="2"/>
+        <v>48.87</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="4"/>
-        <v>6.78</v>
+        <f t="shared" si="2"/>
+        <v>6.76</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="4"/>
-        <v>6.64</v>
+        <f t="shared" si="2"/>
+        <v>6.84</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -2468,8 +2475,8 @@
       <c r="C12" s="2">
         <v>31.0</v>
       </c>
-      <c r="D12" s="2">
-        <v>75.0</v>
+      <c r="D12" s="4">
+        <v>78.0</v>
       </c>
       <c r="E12" s="2">
         <v>80.0</v>
@@ -2483,7 +2490,7 @@
       <c r="H12" s="2">
         <v>40.0</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="2">
         <v>282.0</v>
       </c>
       <c r="J12" s="2">
@@ -2503,8 +2510,8 @@
       <c r="C13" s="2">
         <v>92.0</v>
       </c>
-      <c r="D13" s="2">
-        <v>80.0</v>
+      <c r="D13" s="4">
+        <v>82.0</v>
       </c>
       <c r="E13" s="2">
         <v>94.0</v>
@@ -2538,8 +2545,8 @@
       <c r="C14" s="2">
         <v>31.0</v>
       </c>
-      <c r="D14" s="2">
-        <v>72.0</v>
+      <c r="D14" s="4">
+        <v>74.0</v>
       </c>
       <c r="E14" s="2">
         <v>55.0</v>
@@ -2573,8 +2580,8 @@
       <c r="C15" s="2">
         <v>1.0</v>
       </c>
-      <c r="D15" s="2">
-        <v>1.0</v>
+      <c r="D15" s="4">
+        <v>1.1</v>
       </c>
       <c r="E15" s="2">
         <v>1.5</v>
